--- a/Apple_data_quarterly_balance_sheet.xlsx
+++ b/Apple_data_quarterly_balance_sheet.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>45291</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>45199</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>45107</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>45016</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>44926</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
           <t>Treasury Shares Number</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -479,19 +479,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>15337686000</v>
+      </c>
+      <c r="C3" t="n">
         <v>15460223000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>15550061000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>15647868000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>15723406000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15842407000</v>
       </c>
     </row>
     <row r="4">
@@ -501,19 +501,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>15337686000</v>
+      </c>
+      <c r="C4" t="n">
         <v>15460223000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>15550061000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>15647868000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>15723406000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15842407000</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>71895000000</v>
+      </c>
+      <c r="C5" t="n">
         <v>67280000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>81123000000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>80872000000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>84928000000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>90575000000</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>104590000000</v>
+      </c>
+      <c r="C6" t="n">
         <v>108040000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>111088000000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>109280000000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>109615000000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>111110000000</v>
       </c>
     </row>
     <row r="7">
@@ -567,19 +567,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>74194000000</v>
+      </c>
+      <c r="C7" t="n">
         <v>74100000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>62146000000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>60274000000</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>62158000000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>56727000000</v>
       </c>
     </row>
     <row r="8">
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>178784000000</v>
+      </c>
+      <c r="C8" t="n">
         <v>182140000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>173234000000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>169554000000</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>171773000000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>167837000000</v>
       </c>
     </row>
     <row r="9">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>4594000000</v>
+      </c>
+      <c r="C9" t="n">
         <v>9719000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-1742000000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-2304000000</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-7162000000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-8509000000</v>
       </c>
     </row>
     <row r="10">
@@ -633,19 +633,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>74194000000</v>
+      </c>
+      <c r="C10" t="n">
         <v>74100000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>62146000000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>60274000000</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>62158000000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>56727000000</v>
       </c>
     </row>
     <row r="11">
@@ -655,19 +655,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>74194000000</v>
+      </c>
+      <c r="C11" t="n">
         <v>74100000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>62146000000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>60274000000</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>62158000000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>56727000000</v>
       </c>
     </row>
     <row r="12">
@@ -677,19 +677,19 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>166025000000</v>
+      </c>
+      <c r="C12" t="n">
         <v>169188000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>157427000000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>158345000000</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>159199000000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>156354000000</v>
       </c>
     </row>
     <row r="13">
@@ -699,19 +699,19 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>74194000000</v>
+      </c>
+      <c r="C13" t="n">
         <v>74100000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>62146000000</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>60274000000</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>62158000000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>56727000000</v>
       </c>
     </row>
     <row r="14">
@@ -721,19 +721,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>74194000000</v>
+      </c>
+      <c r="C14" t="n">
         <v>74100000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>62146000000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>60274000000</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>62158000000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>56727000000</v>
       </c>
     </row>
     <row r="15">
@@ -743,19 +743,19 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>-8960000000</v>
+      </c>
+      <c r="C15" t="n">
         <v>-9378000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-11452000000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-11801000000</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-11746000000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-12912000000</v>
       </c>
     </row>
     <row r="16">
@@ -765,19 +765,19 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>-8960000000</v>
+      </c>
+      <c r="C16" t="n">
         <v>-9378000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-11452000000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-11801000000</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-11746000000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-12912000000</v>
       </c>
     </row>
     <row r="17">
@@ -787,19 +787,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>4339000000</v>
+      </c>
+      <c r="C17" t="n">
         <v>8242000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-214000000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>1408000000</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>4336000000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3240000000</v>
       </c>
     </row>
     <row r="18">
@@ -809,19 +809,19 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>78815000000</v>
+      </c>
+      <c r="C18" t="n">
         <v>75236000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>73812000000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>70667000000</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>69568000000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>66399000000</v>
       </c>
     </row>
     <row r="19">
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>78815000000</v>
+      </c>
+      <c r="C19" t="n">
         <v>75236000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>73812000000</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>70667000000</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>69568000000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>66399000000</v>
       </c>
     </row>
     <row r="20">
@@ -853,19 +853,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>263217000000</v>
+      </c>
+      <c r="C20" t="n">
         <v>279414000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>290437000000</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>274764000000</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>270002000000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>290020000000</v>
       </c>
     </row>
     <row r="21">
@@ -875,19 +875,19 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>139395000000</v>
+      </c>
+      <c r="C21" t="n">
         <v>145441000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>145129000000</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>149801000000</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>149927000000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>152734000000</v>
       </c>
     </row>
     <row r="22">
@@ -897,19 +897,19 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>47564000000</v>
+      </c>
+      <c r="C22" t="n">
         <v>50353000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>34391000000</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>51730000000</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>52886000000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>53107000000</v>
       </c>
     </row>
     <row r="23">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
         <v>15457000000</v>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -933,19 +933,19 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>91831000000</v>
+      </c>
+      <c r="C24" t="n">
         <v>95088000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>95281000000</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>98071000000</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>97041000000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>99627000000</v>
       </c>
     </row>
     <row r="25">
@@ -955,19 +955,19 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>91831000000</v>
+      </c>
+      <c r="C25" t="n">
         <v>95088000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>95281000000</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>98071000000</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>97041000000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>99627000000</v>
       </c>
     </row>
     <row r="26">
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>123822000000</v>
+      </c>
+      <c r="C26" t="n">
         <v>133973000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>145308000000</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>124963000000</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>120075000000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>137286000000</v>
       </c>
     </row>
     <row r="27">
@@ -999,19 +999,19 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>57298000000</v>
+      </c>
+      <c r="C27" t="n">
         <v>54611000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>58829000000</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>58897000000</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>56425000000</v>
-      </c>
-      <c r="F27" t="n">
-        <v>59893000000</v>
       </c>
     </row>
     <row r="28">
@@ -1021,19 +1021,19 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>8012000000</v>
+      </c>
+      <c r="C28" t="n">
         <v>8264000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>8061000000</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>8158000000</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>8131000000</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7992000000</v>
       </c>
     </row>
     <row r="29">
@@ -1043,19 +1043,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>8012000000</v>
+      </c>
+      <c r="C29" t="n">
         <v>8264000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>8061000000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>8158000000</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>8131000000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7992000000</v>
       </c>
     </row>
     <row r="30">
@@ -1065,19 +1065,19 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>12759000000</v>
+      </c>
+      <c r="C30" t="n">
         <v>12952000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>15807000000</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>11209000000</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>12574000000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>11483000000</v>
       </c>
     </row>
     <row r="31">
@@ -1087,19 +1087,19 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>12759000000</v>
+      </c>
+      <c r="C31" t="n">
         <v>12952000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>15807000000</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>11209000000</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>12574000000</v>
-      </c>
-      <c r="F31" t="n">
-        <v>11483000000</v>
       </c>
     </row>
     <row r="32">
@@ -1109,19 +1109,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>10762000000</v>
+      </c>
+      <c r="C32" t="n">
         <v>10954000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>9822000000</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>7216000000</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>10578000000</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9740000000</v>
       </c>
     </row>
     <row r="33">
@@ -1131,19 +1131,19 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>1997000000</v>
+      </c>
+      <c r="C33" t="n">
         <v>1998000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>5985000000</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>3993000000</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1996000000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1743000000</v>
       </c>
     </row>
     <row r="34">
@@ -1153,19 +1153,19 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>45753000000</v>
+      </c>
+      <c r="C34" t="n">
         <v>58146000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>62611000000</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>46699000000</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>42945000000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>57918000000</v>
       </c>
     </row>
     <row r="35">
@@ -1175,19 +1175,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>45753000000</v>
+      </c>
+      <c r="C35" t="n">
         <v>58146000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>62611000000</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>46699000000</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>42945000000</v>
-      </c>
-      <c r="F35" t="n">
-        <v>57918000000</v>
       </c>
     </row>
     <row r="36">
@@ -1197,19 +1197,19 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>45753000000</v>
+      </c>
+      <c r="C36" t="n">
         <v>58146000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>62611000000</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>46699000000</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>42945000000</v>
-      </c>
-      <c r="F36" t="n">
-        <v>57918000000</v>
       </c>
     </row>
     <row r="37">
@@ -1219,19 +1219,19 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>337411000000</v>
+      </c>
+      <c r="C37" t="n">
         <v>353514000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>352583000000</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>335038000000</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>332160000000</v>
-      </c>
-      <c r="F37" t="n">
-        <v>346747000000</v>
       </c>
     </row>
     <row r="38">
@@ -1241,19 +1241,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>208995000000</v>
+      </c>
+      <c r="C38" t="n">
         <v>209822000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>209017000000</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>212379000000</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>219247000000</v>
-      </c>
-      <c r="F38" t="n">
-        <v>217970000000</v>
       </c>
     </row>
     <row r="39">
@@ -1263,19 +1263,19 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>70262000000</v>
+      </c>
+      <c r="C39" t="n">
         <v>66681000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>46906000000</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>64768000000</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>65388000000</v>
-      </c>
-      <c r="F39" t="n">
-        <v>60924000000</v>
       </c>
     </row>
     <row r="40">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>17852000000</v>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
     </row>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>17852000000</v>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
     </row>
@@ -1313,473 +1313,459 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>95187000000</v>
+      </c>
+      <c r="C42" t="n">
         <v>99475000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>100544000000</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>104061000000</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>110461000000</v>
-      </c>
-      <c r="F42" t="n">
-        <v>114095000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Other Investments</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+          <t>Investmentin Financial Assets</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>95187000000</v>
+      </c>
+      <c r="C43" t="n">
+        <v>99475000000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>100544000000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>104061000000</v>
+      </c>
       <c r="F43" t="n">
-        <v>114095000000</v>
+        <v>110461000000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Investmentin Financial Assets</t>
+          <t>Available For Sale Securities</t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>95187000000</v>
+      </c>
+      <c r="C44" t="n">
         <v>99475000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>100544000000</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>104061000000</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>110461000000</v>
       </c>
-      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Available For Sale Securities</t>
+          <t>Net PPE</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99475000000</v>
+        <v>43546000000</v>
       </c>
       <c r="C45" t="n">
-        <v>100544000000</v>
+        <v>43666000000</v>
       </c>
       <c r="D45" t="n">
-        <v>104061000000</v>
+        <v>43715000000</v>
       </c>
       <c r="E45" t="n">
-        <v>110461000000</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
+        <v>43550000000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>43398000000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Net PPE</t>
+          <t>Accumulated Depreciation</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43666000000</v>
+        <v>-71697000000</v>
       </c>
       <c r="C46" t="n">
-        <v>43715000000</v>
+        <v>-72510000000</v>
       </c>
       <c r="D46" t="n">
-        <v>43550000000</v>
+        <v>-70884000000</v>
       </c>
       <c r="E46" t="n">
-        <v>43398000000</v>
+        <v>-70787000000</v>
       </c>
       <c r="F46" t="n">
-        <v>42951000000</v>
+        <v>-69668000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Accumulated Depreciation</t>
+          <t>Gross PPE</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-72510000000</v>
+        <v>115243000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-70884000000</v>
+        <v>116176000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-70787000000</v>
+        <v>114599000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-69668000000</v>
+        <v>114337000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-68044000000</v>
+        <v>113066000000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Gross PPE</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>116176000000</v>
-      </c>
-      <c r="C48" t="n">
-        <v>114599000000</v>
-      </c>
+          <t>Leases</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>114337000000</v>
-      </c>
-      <c r="E48" t="n">
-        <v>113066000000</v>
-      </c>
-      <c r="F48" t="n">
-        <v>110995000000</v>
-      </c>
+        <v>12839000000</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>Leases</t>
+          <t>Machinery Furniture Equipment</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>12839000000</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>78314000000</v>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Machinery Furniture Equipment</t>
+          <t>Land And Improvements</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
-        <v>78314000000</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>23446000000</v>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Land And Improvements</t>
+          <t>Properties</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="n">
-        <v>23446000000</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Properties</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>Current Assets</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>128416000000</v>
+      </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+        <v>143692000000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>143566000000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>122659000000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>112913000000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>Current Assets</t>
+          <t>Other Current Assets</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>143692000000</v>
+        <v>13884000000</v>
       </c>
       <c r="C53" t="n">
-        <v>143566000000</v>
+        <v>13979000000</v>
       </c>
       <c r="D53" t="n">
-        <v>122659000000</v>
+        <v>14695000000</v>
       </c>
       <c r="E53" t="n">
-        <v>112913000000</v>
+        <v>13640000000</v>
       </c>
       <c r="F53" t="n">
-        <v>128777000000</v>
+        <v>13660000000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Other Current Assets</t>
+          <t>Inventory</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13979000000</v>
+        <v>6232000000</v>
       </c>
       <c r="C54" t="n">
-        <v>14695000000</v>
+        <v>6511000000</v>
       </c>
       <c r="D54" t="n">
-        <v>13640000000</v>
+        <v>6331000000</v>
       </c>
       <c r="E54" t="n">
-        <v>13660000000</v>
+        <v>7351000000</v>
       </c>
       <c r="F54" t="n">
-        <v>16422000000</v>
+        <v>7482000000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Inventory</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>6511000000</v>
-      </c>
-      <c r="C55" t="n">
-        <v>6331000000</v>
-      </c>
-      <c r="D55" t="n">
-        <v>7351000000</v>
-      </c>
+          <t>Finished Goods</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>7482000000</v>
+        <v>3563000000</v>
       </c>
       <c r="F55" t="n">
-        <v>6820000000</v>
+        <v>4103000000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Finished Goods</t>
+          <t>Raw Materials</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
-        <v>3563000000</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>4103000000</v>
+        <v>3788000000</v>
       </c>
       <c r="F56" t="n">
-        <v>4307000000</v>
+        <v>3379000000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Raw Materials</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>Receivables</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>41150000000</v>
+      </c>
+      <c r="C57" t="n">
+        <v>50102000000</v>
+      </c>
       <c r="D57" t="n">
-        <v>3788000000</v>
+        <v>60985000000</v>
       </c>
       <c r="E57" t="n">
-        <v>3379000000</v>
+        <v>39186000000</v>
       </c>
       <c r="F57" t="n">
-        <v>2513000000</v>
+        <v>35899000000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Receivables</t>
+          <t>Other Receivables</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50102000000</v>
+        <v>19313000000</v>
       </c>
       <c r="C58" t="n">
-        <v>60985000000</v>
+        <v>26908000000</v>
       </c>
       <c r="D58" t="n">
-        <v>39186000000</v>
+        <v>31477000000</v>
       </c>
       <c r="E58" t="n">
-        <v>35899000000</v>
+        <v>19637000000</v>
       </c>
       <c r="F58" t="n">
-        <v>54180000000</v>
+        <v>17963000000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Other Receivables</t>
+          <t>Accounts Receivable</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>26908000000</v>
+        <v>21837000000</v>
       </c>
       <c r="C59" t="n">
-        <v>31477000000</v>
+        <v>23194000000</v>
       </c>
       <c r="D59" t="n">
-        <v>19637000000</v>
+        <v>29508000000</v>
       </c>
       <c r="E59" t="n">
-        <v>17963000000</v>
+        <v>19549000000</v>
       </c>
       <c r="F59" t="n">
-        <v>30428000000</v>
+        <v>17936000000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Accounts Receivable</t>
+          <t>Cash Cash Equivalents And Short Term Investments</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>23194000000</v>
+        <v>67150000000</v>
       </c>
       <c r="C60" t="n">
-        <v>29508000000</v>
+        <v>73100000000</v>
       </c>
       <c r="D60" t="n">
-        <v>19549000000</v>
+        <v>61555000000</v>
       </c>
       <c r="E60" t="n">
-        <v>17936000000</v>
+        <v>62482000000</v>
       </c>
       <c r="F60" t="n">
-        <v>23752000000</v>
+        <v>55872000000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Cash Cash Equivalents And Short Term Investments</t>
+          <t>Other Short Term Investments</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>73100000000</v>
+        <v>34455000000</v>
       </c>
       <c r="C61" t="n">
-        <v>61555000000</v>
+        <v>32340000000</v>
       </c>
       <c r="D61" t="n">
-        <v>62482000000</v>
+        <v>31590000000</v>
       </c>
       <c r="E61" t="n">
-        <v>55872000000</v>
+        <v>34074000000</v>
       </c>
       <c r="F61" t="n">
-        <v>51355000000</v>
+        <v>31185000000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Other Short Term Investments</t>
+          <t>Cash And Cash Equivalents</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>32340000000</v>
+        <v>32695000000</v>
       </c>
       <c r="C62" t="n">
-        <v>31590000000</v>
+        <v>40760000000</v>
       </c>
       <c r="D62" t="n">
-        <v>34074000000</v>
+        <v>29965000000</v>
       </c>
       <c r="E62" t="n">
-        <v>31185000000</v>
+        <v>28408000000</v>
       </c>
       <c r="F62" t="n">
-        <v>30820000000</v>
+        <v>24687000000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Cash And Cash Equivalents</t>
+          <t>Cash Equivalents</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>40760000000</v>
+        <v>4468000000</v>
       </c>
       <c r="C63" t="n">
-        <v>29965000000</v>
+        <v>11218000000</v>
       </c>
       <c r="D63" t="n">
-        <v>28408000000</v>
+        <v>1606000000</v>
       </c>
       <c r="E63" t="n">
-        <v>24687000000</v>
+        <v>3071000000</v>
       </c>
       <c r="F63" t="n">
-        <v>20535000000</v>
+        <v>4637000000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Cash Equivalents</t>
+          <t>Cash Financial</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11218000000</v>
+        <v>28227000000</v>
       </c>
       <c r="C64" t="n">
-        <v>1606000000</v>
+        <v>29542000000</v>
       </c>
       <c r="D64" t="n">
-        <v>3071000000</v>
+        <v>28359000000</v>
       </c>
       <c r="E64" t="n">
-        <v>4637000000</v>
+        <v>25337000000</v>
       </c>
       <c r="F64" t="n">
-        <v>2627000000</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Cash Financial</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>29542000000</v>
-      </c>
-      <c r="C65" t="n">
-        <v>28359000000</v>
-      </c>
-      <c r="D65" t="n">
-        <v>25337000000</v>
-      </c>
-      <c r="E65" t="n">
         <v>20050000000</v>
-      </c>
-      <c r="F65" t="n">
-        <v>17908000000</v>
       </c>
     </row>
   </sheetData>
